--- a/soil FDR/docs/fdr.xlsx
+++ b/soil FDR/docs/fdr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>原始数据</t>
   </si>
@@ -50,15 +50,51 @@
   <si>
     <t>010901040009</t>
   </si>
+  <si>
+    <t>数据包没有crc计算</t>
+  </si>
+  <si>
+    <t>标准设备湿度</t>
+  </si>
+  <si>
+    <t>标准设备温度</t>
+  </si>
+  <si>
+    <t>样机湿度电压</t>
+  </si>
+  <si>
+    <t>样机温度电压1</t>
+  </si>
+  <si>
+    <t>样机温度电压2</t>
+  </si>
+  <si>
+    <t>电阻</t>
+  </si>
+  <si>
+    <t>样机湿度</t>
+  </si>
+  <si>
+    <t>样机温度</t>
+  </si>
+  <si>
+    <t>温度系数q0</t>
+  </si>
+  <si>
+    <t>温度系数q1</t>
+  </si>
+  <si>
+    <t>温度系数q2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -86,15 +122,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,36 +137,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -162,9 +167,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,9 +204,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,6 +235,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -207,16 +250,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,13 +267,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,73 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,55 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,25 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,6 +715,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -709,6 +754,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -734,156 +794,132 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -892,24 +928,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -1836,7 +1884,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.080599950823703"/>
+          <c:y val="0.00412541254125413"/>
+          <c:w val="0.90895008605852"/>
+          <c:h val="0.828987898789879"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
@@ -1913,13 +1971,12 @@
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>湿度校准!$E$1:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.5062</c:v>
+                  <c:v>样机湿度电压</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.506637336</c:v>
@@ -1937,16 +1994,16 @@
                   <c:v>1.541692283</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.57315540285714</c:v>
+                  <c:v>1.573155403</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.62507588428571</c:v>
+                  <c:v>1.625075884</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.52</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -1958,25 +2015,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.36</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.2</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.32</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.2142857142857</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.9142857142857</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3311,16 +3368,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>683895</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>116840</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>334645</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>81280</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>78105</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>237490</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3328,8 +3385,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3500755" y="2037080"/>
-        <a:ext cx="5206365" cy="4655185"/>
+        <a:off x="10031095" y="2639695"/>
+        <a:ext cx="5709285" cy="4655185"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3602,8 +3659,8 @@
   <sheetPr/>
   <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -4609,169 +4666,176 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:G15"/>
+  <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.88461538461539" style="1"/>
-    <col min="2" max="2" width="30.5961538461538" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5480769230769" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6153846153846" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5384615384615" style="1" customWidth="1"/>
-    <col min="6" max="7" width="15.1538461538462" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88461538461539" style="1"/>
+    <col min="1" max="1" width="8.88461538461539" style="5"/>
+    <col min="2" max="2" width="30.5961538461538" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.5480769230769" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.6153846153846" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.5384615384615" style="5" customWidth="1"/>
+    <col min="6" max="7" width="15.1538461538462" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.88461538461539" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="2" t="s">
+    <row r="1" ht="17.55"/>
+    <row r="2" ht="17.55" spans="2:7">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="22"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="17.55" spans="2:7">
-      <c r="B4" s="6">
+      <c r="B4" s="10">
         <v>-2874.1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="11">
         <v>9204.2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="11">
         <v>-7340.6</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="11">
         <v>3.3</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="11">
         <v>1.551</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="28">
         <v>0.6</v>
       </c>
     </row>
+    <row r="5" ht="17.55"/>
     <row r="8" ht="17.55"/>
-    <row r="9" spans="2:7">
-      <c r="B9" s="8" t="s">
+    <row r="9" ht="18.3" spans="2:7">
+      <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="10" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" ht="17.55" spans="2:7">
+      <c r="B10" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="4" t="str">
+      <c r="B11" s="8" t="str">
         <f>RIGHT(REPT(0,10)&amp;DEC2HEX(B4*10),8)</f>
         <v>FFFF8FBB</v>
       </c>
-      <c r="C11" s="5" t="str">
+      <c r="C11" s="9" t="str">
         <f>RIGHT(REPT(0,10)&amp;DEC2HEX(C4*10),8)</f>
         <v>0001678A</v>
       </c>
-      <c r="D11" s="13" t="str">
+      <c r="D11" s="17" t="str">
         <f>RIGHT(REPT(0,10)&amp;DEC2HEX(D4*10),8)</f>
         <v>FFFEE142</v>
       </c>
-      <c r="E11" s="4" t="str">
+      <c r="E11" s="8" t="str">
         <f>RIGHT(REPT(0,10)&amp;DEC2HEX(E4*1000),8)</f>
         <v>00000CE4</v>
       </c>
-      <c r="F11" s="5" t="str">
+      <c r="F11" s="9" t="str">
         <f>RIGHT(REPT(0,10)&amp;DEC2HEX(F4*1000),8)</f>
         <v>0000060F</v>
       </c>
-      <c r="G11" s="23" t="str">
+      <c r="G11" s="27" t="str">
         <f>RIGHT(REPT(0,10)&amp;DEC2HEX(G4*10),2)</f>
         <v>06</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="14" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="27"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="30" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="28"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" ht="17.55" spans="2:7">
-      <c r="B14" s="19" t="str">
+      <c r="B14" s="23" t="str">
         <f>B13&amp;B11&amp;C11&amp;D11</f>
         <v>01080102000cFFFF8FBB0001678AFFFEE142</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="19" t="str">
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="23" t="str">
         <f>E13&amp;E11&amp;F11&amp;G11</f>
         <v>01090104000900000CE40000060F06</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="29"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" ht="17.55"/>
+    <row r="17" spans="2:2">
+      <c r="B17" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1"/>
   <mergeCells count="8">
@@ -4792,524 +4856,610 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G4" sqref="G4:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="5" max="6" width="12.8846153846154"/>
-    <col min="16" max="16" width="14.1153846153846"/>
-    <col min="17" max="17" width="12.8846153846154"/>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88461538461539" style="1"/>
+    <col min="3" max="3" width="9.76923076923077" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.8942307692308" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.9230769230769" style="2"/>
+    <col min="6" max="6" width="15.5480769230769" style="2" customWidth="1"/>
+    <col min="7" max="8" width="12.1730769230769" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.9230769230769" style="1"/>
+    <col min="10" max="10" width="10.3076923076923" style="1" customWidth="1"/>
+    <col min="11" max="13" width="12.6153846153846" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7692307692308" style="1" customWidth="1"/>
+    <col min="15" max="16" width="8.88461538461539" style="1"/>
+    <col min="17" max="17" width="14.1153846153846" style="1"/>
+    <col min="18" max="18" width="12.8846153846154" style="1"/>
+    <col min="19" max="16384" width="8.88461538461539" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:16">
-      <c r="E1">
-        <v>1.5062</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <f>L$2*E1*E1+M$2*E1+N$2</f>
-        <v>2.47229959600099</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2">
+    <row r="1" ht="34" spans="3:14">
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
         <v>1.50695968</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>3.5</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <f>AVERAGE(A2:A6)</f>
         <v>1.506637336</v>
       </c>
-      <c r="F2">
-        <f>AVERAGE(C2:C6)</f>
-        <v>3.6</v>
-      </c>
-      <c r="L2">
-        <v>-2874.1</v>
-      </c>
-      <c r="M2">
-        <v>9204.2</v>
-      </c>
-      <c r="N2">
-        <v>-7340.6</v>
-      </c>
-      <c r="P2">
+      <c r="F2" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="H2" s="2">
+        <f>(F2*499/G2-499)</f>
+        <v>113.565517241379</v>
+      </c>
+      <c r="I2" s="1">
         <f>L$2*E2*E2+M$2*E2+N$2</f>
         <v>2.71064955832298</v>
       </c>
-      <c r="Q2">
-        <f>L$3*E2+M$3</f>
-        <v>7.53100660672004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3">
+      <c r="J2" s="1">
+        <f>L$5*H2*H2+M$5*H2+N$5</f>
+        <v>34.2028968751487</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-2874.1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>9204.2</v>
+      </c>
+      <c r="N2" s="1">
+        <v>-7340.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
         <v>1.50695968</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>3.4</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <f>AVERAGE(A8:A12)</f>
         <v>1.509538436</v>
       </c>
-      <c r="F3">
-        <f>AVERAGE(C8:C12)</f>
-        <v>5.6</v>
-      </c>
-      <c r="L3">
-        <v>197.52</v>
-      </c>
-      <c r="M3">
-        <v>-290.06</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P10" si="0">L$2*E3*E3+M$2*E3+N$2</f>
-        <v>4.26392522817423</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q8" si="1">L$3*E3+M$3</f>
-        <v>8.10403187872004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4">
+      <c r="F3" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H8" si="0">(F3*499/G3-499)</f>
+        <v>109.369863013699</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I8" si="1">L$2*E3*E3+M$2*E3+N$2</f>
+        <v>4.26392522817514</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J8" si="2">L$5*H3*H3+M$5*H3+N$5</f>
+        <v>23.3885038844062</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
         <v>1.50615382</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>3.5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <f>AVERAGE(A14:A18)</f>
         <v>1.526945068</v>
       </c>
-      <c r="F4">
-        <f>AVERAGE(C14:C18)</f>
-        <v>9.36</v>
-      </c>
-      <c r="P4">
+      <c r="F4" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="G4" s="2">
+        <f>G3+0.1</f>
+        <v>1.56</v>
+      </c>
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
+        <v>70.3717948717949</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
         <v>12.5676330198394</v>
       </c>
-      <c r="Q4">
-        <f t="shared" si="1"/>
-        <v>11.54218983136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5">
+      <c r="J4" s="1">
+        <f t="shared" si="2"/>
+        <v>-75.1085264299802</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
         <v>1.50695968</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <f>AVERAGE(A20:A24)</f>
         <v>1.529201506</v>
       </c>
-      <c r="F5">
-        <f>AVERAGE(C20:C24)</f>
-        <v>14.2</v>
-      </c>
-      <c r="P5">
+      <c r="F5" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="G5" s="2">
+        <f>G4+0.1</f>
+        <v>1.66</v>
+      </c>
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
+        <v>36.0722891566264</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
         <v>13.5165309326367</v>
       </c>
-      <c r="Q5">
-        <f t="shared" si="1"/>
-        <v>11.98788146512</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6">
+      <c r="J5" s="1">
+        <f t="shared" si="2"/>
+        <v>-158.721559994194</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.0012</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2.31</v>
+      </c>
+      <c r="N5" s="1">
+        <v>-243.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
         <v>1.50615382</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>3.6</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <f>AVERAGE(A27:A36)</f>
         <v>1.541692283</v>
       </c>
-      <c r="F6">
-        <f>AVERAGE(C27:C36)</f>
-        <v>21.32</v>
-      </c>
-      <c r="P6">
+      <c r="F6" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="G6" s="2">
+        <f>G5+0.1</f>
+        <v>1.76</v>
+      </c>
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
-        <v>18.2398453219794</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="1"/>
-        <v>14.4550597381601</v>
-      </c>
-    </row>
-    <row r="7" spans="5:17">
-      <c r="E7">
+        <v>5.6704545454545</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>18.2398453219803</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>-230.472665134298</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10">
+      <c r="E7" s="2">
         <f>AVERAGE(A39:A45)</f>
         <v>1.57315540285714</v>
       </c>
-      <c r="F7">
-        <f>AVERAGE(C39:C45)</f>
-        <v>24.2142857142857</v>
-      </c>
-      <c r="P7">
+      <c r="F7" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="G7" s="2">
+        <f>G6+0.1</f>
+        <v>1.86</v>
+      </c>
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
-        <v>26.1627706835679</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="1"/>
-        <v>20.6696551723429</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8">
+        <v>-21.4623655913979</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>26.1627706835698</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="2"/>
+        <v>-292.635304751995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
         <v>1.50776553</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>5.4</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <f>AVERAGE(A48:A54)</f>
         <v>1.62507588428571</v>
       </c>
-      <c r="F8">
-        <f>AVERAGE(C48:C54)</f>
-        <v>26.9142857142857</v>
-      </c>
-      <c r="P8">
+      <c r="F8" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="G8" s="2">
+        <f>G7+0.1</f>
+        <v>1.96</v>
+      </c>
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>26.7943032591766</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="1"/>
-        <v>30.9249886641143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9">
+        <v>-45.826530612245</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>26.7943032591784</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="2"/>
+        <v>-346.94920062474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
         <v>1.50776553</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>5.1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>1.52</v>
       </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
-        <v>9.46336000000156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
         <v>1.51260078</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>5.6</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>1.50776553</v>
       </c>
-      <c r="P10">
-        <f t="shared" si="0"/>
-        <v>3.32044374359157</v>
-      </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>1.50937724</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>1.5101831</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>5.9</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>1.52791214</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>10.4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>1.52710629</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>9.2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>1.52710629</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>9.1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>1.52630031</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>9.4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>1.52630031</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>8.7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>1.52871799</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>1.52952385</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>1.52952385</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>1.52791214</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>13.9</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>1.5303297</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>15.1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>1.54241753</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>21.2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>1.53999996</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>21.8</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>1.54080582</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>20.6</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>1.53274727</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>21.1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>1.53919411</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>21.9</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>1.54080582</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>22.1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>1.54080582</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>21.1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>1.55369961</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>21.4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>1.54402936</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>20.2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>1.54241753</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>21.8</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>1.57868135</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>24.5</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>1.56901097</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>23.4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>1.57062268</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>24.1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>1.56981683</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>24.6</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>1.56981683</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>1.56981683</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>24.1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>1.58432233</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>24.8</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>1.627033</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <v>26.3</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>1.62783885</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>1.63025641</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>1.62783885</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>27.7</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>1.61575091</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>1.63025641</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>28.3</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>1.61655676</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>26.1</v>
       </c>
     </row>

--- a/soil FDR/docs/fdr.xlsx
+++ b/soil FDR/docs/fdr.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="9660" activeTab="2"/>
+    <workbookView windowWidth="18684" windowHeight="9840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pt100" sheetId="2" r:id="rId1"/>
     <sheet name="Modbus数据打包工具" sheetId="3" r:id="rId2"/>
     <sheet name="湿度校准" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>原始数据</t>
   </si>
@@ -86,16 +87,25 @@
   <si>
     <t>温度系数q2</t>
   </si>
+  <si>
+    <t>建大1号</t>
+  </si>
+  <si>
+    <t>建大2号</t>
+  </si>
+  <si>
+    <t>样机1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -115,7 +125,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,55 +169,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,37 +183,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,17 +205,26 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,6 +233,38 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -267,13 +277,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,7 +373,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,19 +391,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,85 +433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,37 +445,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,6 +501,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -510,6 +535,21 @@
         <color auto="1"/>
       </left>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -551,6 +591,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -564,6 +619,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
       <top style="thick">
         <color auto="1"/>
       </top>
@@ -617,6 +683,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -630,78 +707,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thick">
-        <color auto="1"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,53 +734,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,153 +765,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -948,14 +958,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -970,43 +980,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1017,94 +1013,108 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2217,6 +2227,707 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0694764947077334"/>
+          <c:y val="0.16115058048865"/>
+          <c:w val="0.927662820635072"/>
+          <c:h val="0.784162190261653"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0.896405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.896405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.895606</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.894008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.893209</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.891611</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.889214</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.886818</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.886019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.886818</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.888415</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.890812</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.893209</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.896405</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.903595</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.908389</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.913182</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.917177</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.923569</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.92996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.935553</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.942743</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.949135</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.955526</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.962716</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.969907</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.977097</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.985087</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.992277</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.998668</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.006658</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.013848</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.021039</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.028229</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.035419</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.041811</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.048202</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.054594</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.060187</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.066578</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.07217</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0776831</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.082557</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.08735</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.097736</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.101731</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.105726</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.108922</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.112916</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.116112</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.120107</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.124101</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.128895</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.134487</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.139281</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.143276</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.146471</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.151265</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.156858</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.160852</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.164847</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>57.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>58.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>59.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>61.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>61.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>63.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>60.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>61.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>65.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>68.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>72.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>74.3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>76.1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>78.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>79.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>79.6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>79.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>80.7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>81.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>81.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>83.3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>83.9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>86.1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>88.9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>89.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="548057213"/>
+        <c:axId val="868075559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="548057213"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="868075559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="868075559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="548057213"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2297,6 +3008,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2814,6 +3565,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3350,8 +4617,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2740660" y="901065"/>
-        <a:ext cx="6349365" cy="3691890"/>
+        <a:off x="2832100" y="779145"/>
+        <a:ext cx="6598285" cy="3173730"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3385,8 +4652,43 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10031095" y="2639695"/>
-        <a:ext cx="5709285" cy="4655185"/>
+        <a:off x="10404475" y="2268855"/>
+        <a:ext cx="5933440" cy="3984625"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>173355</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>607060</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6139815" y="8834120"/>
+        <a:ext cx="6659245" cy="3664585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3655,7 +4957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:T81"/>
   <sheetViews>
@@ -3663,11 +4965,11 @@
       <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="12.9230769230769"/>
-    <col min="8" max="8" width="12.8846153846154"/>
-    <col min="20" max="20" width="14.0769230769231"/>
+    <col min="7" max="7" width="12.9259259259259"/>
+    <col min="8" max="8" width="12.8888888888889"/>
+    <col min="20" max="20" width="14.0740740740741"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -4664,7 +5966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:G17"/>
   <sheetViews>
@@ -4672,19 +5974,19 @@
       <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.88461538461539" style="5"/>
-    <col min="2" max="2" width="30.5961538461538" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.5480769230769" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.6153846153846" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19.5384615384615" style="5" customWidth="1"/>
-    <col min="6" max="7" width="15.1538461538462" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="8.88461538461539" style="5"/>
+    <col min="1" max="1" width="8.88888888888889" style="5"/>
+    <col min="2" max="2" width="30.5925925925926" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.5462962962963" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.6111111111111" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.537037037037" style="5" customWidth="1"/>
+    <col min="6" max="7" width="15.1574074074074" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.88888888888889" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.55"/>
-    <row r="2" ht="17.55" spans="2:7">
+    <row r="1" ht="15.15"/>
+    <row r="2" ht="15.15" spans="2:7">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -4692,145 +5994,145 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="26"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="17.55" spans="2:7">
-      <c r="B4" s="10">
+    <row r="4" ht="15.15" spans="2:7">
+      <c r="B4" s="12">
         <v>-2874.1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="13">
         <v>9204.2</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="13">
         <v>-7340.6</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="13">
         <v>3.3</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="13">
         <v>1.551</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="14">
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" ht="17.55"/>
-    <row r="8" ht="17.55"/>
-    <row r="9" ht="18.3" spans="2:7">
-      <c r="B9" s="12" t="s">
+    <row r="5" ht="15.15"/>
+    <row r="8" ht="15.15"/>
+    <row r="9" ht="15.9" spans="2:7">
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" ht="17.55" spans="2:7">
-      <c r="B10" s="14" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" ht="15.15" spans="2:7">
+      <c r="B10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="8" t="str">
+      <c r="B11" s="9" t="str">
         <f>RIGHT(REPT(0,10)&amp;DEC2HEX(B4*10),8)</f>
         <v>FFFF8FBB</v>
       </c>
-      <c r="C11" s="9" t="str">
+      <c r="C11" s="10" t="str">
         <f>RIGHT(REPT(0,10)&amp;DEC2HEX(C4*10),8)</f>
         <v>0001678A</v>
       </c>
-      <c r="D11" s="17" t="str">
+      <c r="D11" s="22" t="str">
         <f>RIGHT(REPT(0,10)&amp;DEC2HEX(D4*10),8)</f>
         <v>FFFEE142</v>
       </c>
-      <c r="E11" s="8" t="str">
+      <c r="E11" s="9" t="str">
         <f>RIGHT(REPT(0,10)&amp;DEC2HEX(E4*1000),8)</f>
         <v>00000CE4</v>
       </c>
-      <c r="F11" s="9" t="str">
+      <c r="F11" s="10" t="str">
         <f>RIGHT(REPT(0,10)&amp;DEC2HEX(F4*1000),8)</f>
         <v>0000060F</v>
       </c>
-      <c r="G11" s="27" t="str">
+      <c r="G11" s="11" t="str">
         <f>RIGHT(REPT(0,10)&amp;DEC2HEX(G4*10),2)</f>
         <v>06</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="18" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="31"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="32"/>
-    </row>
-    <row r="14" ht="17.55" spans="2:7">
-      <c r="B14" s="23" t="str">
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" ht="15.15" spans="2:7">
+      <c r="B14" s="30" t="str">
         <f>B13&amp;B11&amp;C11&amp;D11</f>
         <v>01080102000cFFFF8FBB0001678AFFFEE142</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="23" t="str">
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="30" t="str">
         <f>E13&amp;E11&amp;F11&amp;G11</f>
         <v>01090104000900000CE40000060F06</v>
       </c>
-      <c r="F14" s="24"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="33"/>
     </row>
-    <row r="15" ht="17.55"/>
+    <row r="15" ht="15.15"/>
     <row r="17" spans="2:2">
       <c r="B17" s="5" t="s">
         <v>11</v>
@@ -4854,59 +6156,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88461538461539" style="1"/>
-    <col min="3" max="3" width="9.76923076923077" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.8942307692308" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.9230769230769" style="2"/>
-    <col min="6" max="6" width="15.5480769230769" style="2" customWidth="1"/>
-    <col min="7" max="8" width="12.1730769230769" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.9230769230769" style="1"/>
-    <col min="10" max="10" width="10.3076923076923" style="1" customWidth="1"/>
-    <col min="11" max="13" width="12.6153846153846" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7692307692308" style="1" customWidth="1"/>
-    <col min="15" max="16" width="8.88461538461539" style="1"/>
-    <col min="17" max="17" width="14.1153846153846" style="1"/>
-    <col min="18" max="18" width="12.8846153846154" style="1"/>
-    <col min="19" max="16384" width="8.88461538461539" style="1"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.88888888888889" style="2"/>
+    <col min="3" max="3" width="9.76851851851852" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.8981481481481" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.9259259259259" style="3"/>
+    <col min="6" max="6" width="15.5462962962963" style="3" customWidth="1"/>
+    <col min="7" max="8" width="12.1759259259259" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.9259259259259" style="2"/>
+    <col min="10" max="10" width="10.3055555555556" style="2" customWidth="1"/>
+    <col min="11" max="13" width="12.6111111111111" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.7685185185185" style="2" customWidth="1"/>
+    <col min="15" max="16" width="8.88888888888889" style="2"/>
+    <col min="17" max="17" width="14.1111111111111" style="2"/>
+    <col min="18" max="18" width="12.8888888888889" style="2"/>
+    <col min="19" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34" spans="3:14">
-      <c r="C1" s="2" t="s">
+    <row r="1" ht="28.8" spans="3:14">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="3"/>
+      <c r="K1" s="4"/>
       <c r="L1" s="4" t="s">
         <v>1</v>
       </c>
@@ -4918,549 +6220,2197 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1.50695968</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>3.5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <f>AVERAGE(A2:A6)</f>
         <v>1.506637336</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>1.78</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>1.45</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <f>(F2*499/G2-499)</f>
         <v>113.565517241379</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <f>L$2*E2*E2+M$2*E2+N$2</f>
         <v>2.71064955832298</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <f>L$5*H2*H2+M$5*H2+N$5</f>
         <v>34.2028968751487</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <v>-2874.1</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="2">
         <v>9204.2</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="2">
         <v>-7340.6</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1.50695968</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>3.4</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <f>AVERAGE(A8:A12)</f>
         <v>1.509538436</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>1.78</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>1.46</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <f t="shared" ref="H3:H8" si="0">(F3*499/G3-499)</f>
         <v>109.369863013699</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <f t="shared" ref="I3:I8" si="1">L$2*E3*E3+M$2*E3+N$2</f>
         <v>4.26392522817514</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <f t="shared" ref="J3:J8" si="2">L$5*H3*H3+M$5*H3+N$5</f>
         <v>23.3885038844062</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>1.50615382</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>3.5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <f>AVERAGE(A14:A18)</f>
         <v>1.526945068</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>1.78</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <f>G3+0.1</f>
         <v>1.56</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>70.3717948717949</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <f t="shared" si="1"/>
         <v>12.5676330198394</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <f t="shared" si="2"/>
         <v>-75.1085264299802</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>1.50695968</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <f>AVERAGE(A20:A24)</f>
         <v>1.529201506</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>1.78</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <f>G4+0.1</f>
         <v>1.66</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>36.0722891566264</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <f t="shared" si="1"/>
         <v>13.5165309326367</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <f t="shared" si="2"/>
         <v>-158.721559994194</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
         <v>0.0012</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="2">
         <v>2.31</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="2">
         <v>-243.61</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>1.50615382</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>3.6</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <f>AVERAGE(A27:A36)</f>
         <v>1.541692283</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>1.78</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <f>G5+0.1</f>
         <v>1.76</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>5.6704545454545</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <f t="shared" si="1"/>
         <v>18.2398453219803</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <f t="shared" si="2"/>
         <v>-230.472665134298</v>
       </c>
     </row>
     <row r="7" spans="5:10">
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <f>AVERAGE(A39:A45)</f>
         <v>1.57315540285714</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>1.78</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <f>G6+0.1</f>
         <v>1.86</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>-21.4623655913979</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <f t="shared" si="1"/>
         <v>26.1627706835698</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <f t="shared" si="2"/>
         <v>-292.635304751995</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>1.50776553</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>5.4</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <f>AVERAGE(A48:A54)</f>
         <v>1.62507588428571</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>1.78</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <f>G7+0.1</f>
         <v>1.96</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>-45.826530612245</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <f t="shared" si="1"/>
         <v>26.7943032591784</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <f t="shared" si="2"/>
         <v>-346.94920062474</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>1.50776553</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>5.1</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>1.52</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>1.51260078</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>5.6</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>1.50776553</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>1.50937724</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>1.5101831</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>5.9</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>1.52791214</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>10.4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>1.52710629</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>9.2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>1.52710629</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>9.1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>1.52630031</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>9.4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>1.52630031</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>8.7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>1.52871799</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>1.52952385</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>1.52952385</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>1.52791214</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>13.9</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>1.5303297</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>15.1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>1.54241753</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="3">
         <v>21.2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>1.53999996</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="3">
         <v>21.8</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>1.54080582</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="3">
         <v>20.6</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>1.53274727</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="3">
         <v>21.1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>1.53919411</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="3">
         <v>21.9</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>1.54080582</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="3">
         <v>22.1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>1.54080582</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="3">
         <v>21.1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>1.55369961</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="3">
         <v>21.4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>1.54402936</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="3">
         <v>20.2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>1.54241753</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="3">
         <v>21.8</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>1.57868135</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="3">
         <v>24.5</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>1.56901097</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="3">
         <v>23.4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>1.57062268</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="3">
         <v>24.1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>1.56981683</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="3">
         <v>24.6</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>1.56981683</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>1.56981683</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="3">
         <v>24.1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>1.58432233</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="3">
         <v>24.8</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>1.627033</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="3">
         <v>26.3</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>1.62783885</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>1.63025641</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>1.62783885</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="3">
         <v>27.7</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>1.61575091</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>1.63025641</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="3">
         <v>28.3</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>1.61655676</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="3">
         <v>26.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="5" max="5" width="10.6666666666667"/>
+    <col min="8" max="8" width="14.1111111111111"/>
+    <col min="11" max="11" width="10.7777777777778"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13.3</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.896405</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>K$2*E2*E2*E2+K$3*E2*E2+K$4*E2+K$5</f>
+        <v>19.9111994401283</v>
+      </c>
+      <c r="K2" s="1">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16.2</v>
+      </c>
+      <c r="C3">
+        <v>5.1</v>
+      </c>
+      <c r="D3">
+        <v>5.1</v>
+      </c>
+      <c r="E3">
+        <v>0.896405</v>
+      </c>
+      <c r="F3">
+        <v>5.1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H30" si="0">K$2*E3*E3*E3+K$3*E3*E3+K$4*E3+K$5</f>
+        <v>19.9111994401283</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-25170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>18.8</v>
+      </c>
+      <c r="C4">
+        <v>11.4</v>
+      </c>
+      <c r="D4">
+        <v>10.3</v>
+      </c>
+      <c r="E4">
+        <v>0.895606</v>
+      </c>
+      <c r="F4">
+        <v>10.3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>19.4258759615914</v>
+      </c>
+      <c r="K4" s="1">
+        <v>26300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>20.3</v>
+      </c>
+      <c r="C5">
+        <v>14.7</v>
+      </c>
+      <c r="D5">
+        <v>13.6</v>
+      </c>
+      <c r="E5">
+        <v>0.894008</v>
+      </c>
+      <c r="F5">
+        <v>13.6</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>18.4417433444451</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-9136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>22.3</v>
+      </c>
+      <c r="C6">
+        <v>17.3</v>
+      </c>
+      <c r="D6">
+        <v>16.2</v>
+      </c>
+      <c r="E6">
+        <v>0.893209</v>
+      </c>
+      <c r="F6">
+        <v>16.2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>17.9428848706702</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>19.8</v>
+      </c>
+      <c r="D7">
+        <v>17.4</v>
+      </c>
+      <c r="E7">
+        <v>0.891611</v>
+      </c>
+      <c r="F7">
+        <v>17.4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>16.9314602547747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>25.5</v>
+      </c>
+      <c r="C8">
+        <v>21.2</v>
+      </c>
+      <c r="D8">
+        <v>19.9</v>
+      </c>
+      <c r="E8">
+        <v>0.889214</v>
+      </c>
+      <c r="F8">
+        <v>19.9</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>15.3796841463263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>26.8</v>
+      </c>
+      <c r="C9">
+        <v>23.2</v>
+      </c>
+      <c r="D9">
+        <v>21.9</v>
+      </c>
+      <c r="E9">
+        <v>0.886818</v>
+      </c>
+      <c r="F9">
+        <v>21.9</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>13.7864228481776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>28.1</v>
+      </c>
+      <c r="C10">
+        <v>24.8</v>
+      </c>
+      <c r="D10">
+        <v>23.7</v>
+      </c>
+      <c r="E10">
+        <v>0.886019</v>
+      </c>
+      <c r="F10">
+        <v>23.7</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>13.2456333098817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>29.1</v>
+      </c>
+      <c r="C11">
+        <v>26.3</v>
+      </c>
+      <c r="D11">
+        <v>25.2</v>
+      </c>
+      <c r="E11">
+        <v>0.886818</v>
+      </c>
+      <c r="F11">
+        <v>25.2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>13.7864228481776</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>29.9</v>
+      </c>
+      <c r="C12">
+        <v>27.5</v>
+      </c>
+      <c r="D12">
+        <v>26.6</v>
+      </c>
+      <c r="E12">
+        <v>0.888415</v>
+      </c>
+      <c r="F12">
+        <v>26.6</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>14.8530896572684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>34.1</v>
+      </c>
+      <c r="C13">
+        <v>28.7</v>
+      </c>
+      <c r="D13">
+        <v>27.5</v>
+      </c>
+      <c r="E13">
+        <v>0.890812</v>
+      </c>
+      <c r="F13">
+        <v>27.5</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>16.4188447774941</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>37.4</v>
+      </c>
+      <c r="C14">
+        <v>29.6</v>
+      </c>
+      <c r="D14">
+        <v>28.4</v>
+      </c>
+      <c r="E14">
+        <v>0.893209</v>
+      </c>
+      <c r="F14">
+        <v>28.4</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>17.9428848706702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>40.5</v>
+      </c>
+      <c r="C15">
+        <v>31.4</v>
+      </c>
+      <c r="D15">
+        <v>29.2</v>
+      </c>
+      <c r="E15">
+        <v>0.896405</v>
+      </c>
+      <c r="F15">
+        <v>29.2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>19.9111994401283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>43.1</v>
+      </c>
+      <c r="C16">
+        <v>35.1</v>
+      </c>
+      <c r="D16">
+        <v>29.9</v>
+      </c>
+      <c r="E16">
+        <v>0.9004</v>
+      </c>
+      <c r="F16">
+        <v>29.9</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>22.2713752358432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>45.4</v>
+      </c>
+      <c r="C17">
+        <v>38.6</v>
+      </c>
+      <c r="D17">
+        <v>33.5</v>
+      </c>
+      <c r="E17">
+        <v>0.903595</v>
+      </c>
+      <c r="F17">
+        <v>33.5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>24.0807104054711</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>47.7</v>
+      </c>
+      <c r="C18">
+        <v>41.7</v>
+      </c>
+      <c r="D18">
+        <v>35.7</v>
+      </c>
+      <c r="E18">
+        <v>0.908389</v>
+      </c>
+      <c r="F18">
+        <v>35.7</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>26.668861557293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>49.5</v>
+      </c>
+      <c r="C19">
+        <v>43.7</v>
+      </c>
+      <c r="D19">
+        <v>38.4</v>
+      </c>
+      <c r="E19">
+        <v>0.913182</v>
+      </c>
+      <c r="F19">
+        <v>38.4</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>29.1091940666338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>51</v>
+      </c>
+      <c r="C20">
+        <v>46.2</v>
+      </c>
+      <c r="D20">
+        <v>40.8</v>
+      </c>
+      <c r="E20">
+        <v>0.917177</v>
+      </c>
+      <c r="F20">
+        <v>40.8</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>31.0345450691038</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>52.6</v>
+      </c>
+      <c r="C21">
+        <v>48.1</v>
+      </c>
+      <c r="D21">
+        <v>42.7</v>
+      </c>
+      <c r="E21">
+        <v>0.923569</v>
+      </c>
+      <c r="F21">
+        <v>42.7</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>33.9176955959447</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>53.8</v>
+      </c>
+      <c r="C22">
+        <v>49.9</v>
+      </c>
+      <c r="D22">
+        <v>44.5</v>
+      </c>
+      <c r="E22">
+        <v>0.92996</v>
+      </c>
+      <c r="F22">
+        <v>44.5</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>36.5685324273254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>55.9</v>
+      </c>
+      <c r="C23">
+        <v>51.6</v>
+      </c>
+      <c r="D23">
+        <v>45.6</v>
+      </c>
+      <c r="E23">
+        <v>0.935553</v>
+      </c>
+      <c r="F23">
+        <v>45.6</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>38.7080763286322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>57.5</v>
+      </c>
+      <c r="C24">
+        <v>53.2</v>
+      </c>
+      <c r="D24">
+        <v>47.5</v>
+      </c>
+      <c r="E24">
+        <v>0.942743</v>
+      </c>
+      <c r="F24">
+        <v>47.5</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>41.2255027112369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>59</v>
+      </c>
+      <c r="C25">
+        <v>54.9</v>
+      </c>
+      <c r="D25">
+        <v>49.3</v>
+      </c>
+      <c r="E25">
+        <v>0.949135</v>
+      </c>
+      <c r="F25">
+        <v>49.3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>43.2568251866724</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>60.2</v>
+      </c>
+      <c r="C26">
+        <v>56.7</v>
+      </c>
+      <c r="D26">
+        <v>50.8</v>
+      </c>
+      <c r="E26">
+        <v>0.955526</v>
+      </c>
+      <c r="F26">
+        <v>50.8</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>45.1064706395919</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>61</v>
+      </c>
+      <c r="C27">
+        <v>58.2</v>
+      </c>
+      <c r="D27">
+        <v>52.5</v>
+      </c>
+      <c r="E27">
+        <v>0.962716</v>
+      </c>
+      <c r="F27">
+        <v>52.5</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>46.9863076989568</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>62.5</v>
+      </c>
+      <c r="C28">
+        <v>59.4</v>
+      </c>
+      <c r="D28">
+        <v>54.7</v>
+      </c>
+      <c r="E28">
+        <v>0.969907</v>
+      </c>
+      <c r="F28">
+        <v>54.7</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>48.6707970910211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>63.9</v>
+      </c>
+      <c r="C29">
+        <v>60.4</v>
+      </c>
+      <c r="D29">
+        <v>55.8</v>
+      </c>
+      <c r="E29">
+        <v>0.977097</v>
+      </c>
+      <c r="F29">
+        <v>55.8</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>50.177447568065</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>65.2</v>
+      </c>
+      <c r="C30">
+        <v>61.7</v>
+      </c>
+      <c r="D30">
+        <v>57.7</v>
+      </c>
+      <c r="E30">
+        <v>0.985087</v>
+      </c>
+      <c r="F30">
+        <v>57.7</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>51.6652744902203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>66.2</v>
+      </c>
+      <c r="C31">
+        <v>63.1</v>
+      </c>
+      <c r="D31">
+        <v>57.1</v>
+      </c>
+      <c r="E31">
+        <v>0.992277</v>
+      </c>
+      <c r="F31">
+        <v>57.1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31:H63" si="1">K$2*E31*E31*E31+K$3*E31*E31+K$4*E31+K$5</f>
+        <v>52.8560189901764</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>67.2</v>
+      </c>
+      <c r="C32">
+        <v>64.1</v>
+      </c>
+      <c r="D32">
+        <v>58.2</v>
+      </c>
+      <c r="E32">
+        <v>0.998668</v>
+      </c>
+      <c r="F32">
+        <v>58.2</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>53.8117444703166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>68</v>
+      </c>
+      <c r="C33">
+        <v>65.6</v>
+      </c>
+      <c r="D33">
+        <v>59.9</v>
+      </c>
+      <c r="E33">
+        <v>1.006658</v>
+      </c>
+      <c r="F33">
+        <v>59.9</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>54.8906131721087</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>68.7</v>
+      </c>
+      <c r="C34">
+        <v>66.8</v>
+      </c>
+      <c r="D34">
+        <v>61.2</v>
+      </c>
+      <c r="E34">
+        <v>1.013848</v>
+      </c>
+      <c r="F34">
+        <v>61.2</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>55.7702746293398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>69</v>
+      </c>
+      <c r="C35">
+        <v>67.6</v>
+      </c>
+      <c r="D35">
+        <v>61.3</v>
+      </c>
+      <c r="E35">
+        <v>1.021039</v>
+      </c>
+      <c r="F35">
+        <v>61.3</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>56.58230717884</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>69.1</v>
+      </c>
+      <c r="C36">
+        <v>68.5</v>
+      </c>
+      <c r="D36">
+        <v>62.5</v>
+      </c>
+      <c r="E36">
+        <v>1.028229</v>
+      </c>
+      <c r="F36">
+        <v>62.5</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>57.3444622253373</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>69.3</v>
+      </c>
+      <c r="C37">
+        <v>68.5</v>
+      </c>
+      <c r="D37">
+        <v>63.2</v>
+      </c>
+      <c r="E37">
+        <v>1.035419</v>
+      </c>
+      <c r="F37">
+        <v>63.2</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>58.0748321542815</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>67.4</v>
+      </c>
+      <c r="C38">
+        <v>68.2</v>
+      </c>
+      <c r="D38">
+        <v>60.8</v>
+      </c>
+      <c r="E38">
+        <v>1.041811</v>
+      </c>
+      <c r="F38">
+        <v>60.8</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>58.7119858633341</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>66.6</v>
+      </c>
+      <c r="C39">
+        <v>67.6</v>
+      </c>
+      <c r="D39">
+        <v>60.8</v>
+      </c>
+      <c r="E39">
+        <v>1.048202</v>
+      </c>
+      <c r="F39">
+        <v>60.8</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>59.3507540346727</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>66</v>
+      </c>
+      <c r="C40">
+        <v>67.2</v>
+      </c>
+      <c r="D40">
+        <v>60.1</v>
+      </c>
+      <c r="E40">
+        <v>1.054594</v>
+      </c>
+      <c r="F40">
+        <v>60.1</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>60.0039647213562</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>66</v>
+      </c>
+      <c r="C41">
+        <v>66.4</v>
+      </c>
+      <c r="D41">
+        <v>60.2</v>
+      </c>
+      <c r="E41">
+        <v>1.060187</v>
+      </c>
+      <c r="F41">
+        <v>60.2</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>60.5972185424143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>67.4</v>
+      </c>
+      <c r="C42">
+        <v>67.6</v>
+      </c>
+      <c r="D42">
+        <v>61.2</v>
+      </c>
+      <c r="E42">
+        <v>1.066578</v>
+      </c>
+      <c r="F42">
+        <v>61.2</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>61.3112483214427</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>70.3</v>
+      </c>
+      <c r="C43">
+        <v>69.3</v>
+      </c>
+      <c r="D43">
+        <v>65.4</v>
+      </c>
+      <c r="E43">
+        <v>1.07217</v>
+      </c>
+      <c r="F43">
+        <v>65.4</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>61.9771147727442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>73</v>
+      </c>
+      <c r="C44">
+        <v>70.9</v>
+      </c>
+      <c r="D44">
+        <v>68.7</v>
+      </c>
+      <c r="E44">
+        <v>1.0776831</v>
+      </c>
+      <c r="F44">
+        <v>68.7</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>62.6797753709252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>75.5</v>
+      </c>
+      <c r="C45">
+        <v>73.2</v>
+      </c>
+      <c r="D45">
+        <v>70</v>
+      </c>
+      <c r="E45">
+        <v>1.082557</v>
+      </c>
+      <c r="F45">
+        <v>70</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>63.3456815358768</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>77.7</v>
+      </c>
+      <c r="C46">
+        <v>75.5</v>
+      </c>
+      <c r="D46">
+        <v>72.2</v>
+      </c>
+      <c r="E46">
+        <v>1.08735</v>
+      </c>
+      <c r="F46">
+        <v>72.2</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>64.0471263959225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>79.6</v>
+      </c>
+      <c r="C47">
+        <v>77.7</v>
+      </c>
+      <c r="D47">
+        <v>74.3</v>
+      </c>
+      <c r="E47">
+        <v>1.097736</v>
+      </c>
+      <c r="F47">
+        <v>74.3</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>65.751102761009</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>82</v>
+      </c>
+      <c r="C48">
+        <v>79.6</v>
+      </c>
+      <c r="D48">
+        <v>75</v>
+      </c>
+      <c r="E48">
+        <v>1.101731</v>
+      </c>
+      <c r="F48">
+        <v>75</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>66.4824784083175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>84.1</v>
+      </c>
+      <c r="C49">
+        <v>82</v>
+      </c>
+      <c r="D49">
+        <v>76.1</v>
+      </c>
+      <c r="E49">
+        <v>1.105726</v>
+      </c>
+      <c r="F49">
+        <v>76.1</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>67.260771919231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>84.5</v>
+      </c>
+      <c r="C50">
+        <v>83.5</v>
+      </c>
+      <c r="D50">
+        <v>78.3</v>
+      </c>
+      <c r="E50">
+        <v>1.108922</v>
+      </c>
+      <c r="F50">
+        <v>78.3</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>67.9192596668872</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>85.5</v>
+      </c>
+      <c r="C51">
+        <v>84.3</v>
+      </c>
+      <c r="D51">
+        <v>79.3</v>
+      </c>
+      <c r="E51">
+        <v>1.112916</v>
+      </c>
+      <c r="F51">
+        <v>79.3</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>68.7895508978945</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>86.4</v>
+      </c>
+      <c r="C52">
+        <v>85.1</v>
+      </c>
+      <c r="D52">
+        <v>79.6</v>
+      </c>
+      <c r="E52">
+        <v>1.116112</v>
+      </c>
+      <c r="F52">
+        <v>79.6</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>69.5258013781386</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>87</v>
+      </c>
+      <c r="C53">
+        <v>85.7</v>
+      </c>
+      <c r="D53">
+        <v>79.6</v>
+      </c>
+      <c r="E53">
+        <v>1.120107</v>
+      </c>
+      <c r="F53">
+        <v>79.6</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>70.4985152397858</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>88</v>
+      </c>
+      <c r="C54">
+        <v>86.8</v>
+      </c>
+      <c r="D54">
+        <v>80.7</v>
+      </c>
+      <c r="E54">
+        <v>1.124101</v>
+      </c>
+      <c r="F54">
+        <v>80.7</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>71.5320633748561</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>89</v>
+      </c>
+      <c r="C55">
+        <v>87.8</v>
+      </c>
+      <c r="D55">
+        <v>81.3</v>
+      </c>
+      <c r="E55">
+        <v>1.128895</v>
+      </c>
+      <c r="F55">
+        <v>81.3</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>72.8576160704215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>90.3</v>
+      </c>
+      <c r="C56">
+        <v>88</v>
+      </c>
+      <c r="D56">
+        <v>81.7</v>
+      </c>
+      <c r="E56">
+        <v>1.134487</v>
+      </c>
+      <c r="F56">
+        <v>81.7</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>74.5277057406056</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>90.5</v>
+      </c>
+      <c r="C57">
+        <v>89.2</v>
+      </c>
+      <c r="D57">
+        <v>83.3</v>
+      </c>
+      <c r="E57">
+        <v>1.139281</v>
+      </c>
+      <c r="F57">
+        <v>83.3</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>76.0717677971261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>91.5</v>
+      </c>
+      <c r="C58">
+        <v>89.5</v>
+      </c>
+      <c r="D58">
+        <v>83.9</v>
+      </c>
+      <c r="E58">
+        <v>1.143276</v>
+      </c>
+      <c r="F58">
+        <v>83.9</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>77.441750014339</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>91.1</v>
+      </c>
+      <c r="C59">
+        <v>90.9</v>
+      </c>
+      <c r="D59">
+        <v>85.4</v>
+      </c>
+      <c r="E59">
+        <v>1.146471</v>
+      </c>
+      <c r="F59">
+        <v>85.4</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>78.5940870949016</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>92.1</v>
+      </c>
+      <c r="C60">
+        <v>91.5</v>
+      </c>
+      <c r="D60">
+        <v>85.5</v>
+      </c>
+      <c r="E60">
+        <v>1.151265</v>
+      </c>
+      <c r="F60">
+        <v>85.5</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="1"/>
+        <v>80.4213543590558</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>93.8</v>
+      </c>
+      <c r="C61">
+        <v>93</v>
+      </c>
+      <c r="D61">
+        <v>86.1</v>
+      </c>
+      <c r="E61">
+        <v>1.156858</v>
+      </c>
+      <c r="F61">
+        <v>86.1</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="1"/>
+        <v>82.7085124419136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>94.8</v>
+      </c>
+      <c r="C62">
+        <v>94.8</v>
+      </c>
+      <c r="D62">
+        <v>88.9</v>
+      </c>
+      <c r="E62">
+        <v>1.160852</v>
+      </c>
+      <c r="F62">
+        <v>88.9</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="1"/>
+        <v>84.4486159332955</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>96</v>
+      </c>
+      <c r="C63">
+        <v>95.6</v>
+      </c>
+      <c r="D63">
+        <v>89.8</v>
+      </c>
+      <c r="E63">
+        <v>1.164847</v>
+      </c>
+      <c r="F63">
+        <v>89.8</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="1"/>
+        <v>86.2816928146131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>97.5</v>
+      </c>
+      <c r="C64">
+        <v>97.5</v>
+      </c>
+      <c r="D64">
+        <v>86.8</v>
+      </c>
+      <c r="F64">
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>98.3</v>
+      </c>
+      <c r="C65">
+        <v>98.5</v>
+      </c>
+      <c r="D65">
+        <v>85.9</v>
+      </c>
+      <c r="F65">
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>100</v>
+      </c>
+      <c r="C66">
+        <v>100</v>
+      </c>
+      <c r="D66">
+        <v>88.5</v>
+      </c>
+      <c r="F66">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6">
+      <c r="D67">
+        <v>87.6</v>
+      </c>
+      <c r="F67">
+        <v>87.6</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6">
+      <c r="D68">
+        <v>87.6</v>
+      </c>
+      <c r="F68">
+        <v>87.6</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6">
+      <c r="D69">
+        <v>89.8</v>
+      </c>
+      <c r="F69">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6">
+      <c r="D70">
+        <v>88.5</v>
+      </c>
+      <c r="F70">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6">
+      <c r="D71">
+        <v>90.9</v>
+      </c>
+      <c r="F71">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6">
+      <c r="D72">
+        <v>93.3</v>
+      </c>
+      <c r="F72">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6">
+      <c r="D73">
+        <v>93.7</v>
+      </c>
+      <c r="F73">
+        <v>93.7</v>
       </c>
     </row>
   </sheetData>

--- a/soil FDR/docs/fdr.xlsx
+++ b/soil FDR/docs/fdr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18684" windowHeight="9840" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pt100" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>原始数据</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>数据包没有crc计算</t>
+  </si>
+  <si>
+    <t>01090104000900000CE40000027A06</t>
+  </si>
+  <si>
+    <t>01080102000cFFFFF8A700000F7CFFFFFA8C</t>
   </si>
   <si>
     <t>标准设备湿度</t>
@@ -103,8 +109,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -125,30 +131,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,21 +145,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,9 +165,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,57 +268,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -277,7 +283,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,7 +373,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,37 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,121 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,6 +713,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -726,41 +762,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -790,17 +791,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,10 +818,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,137 +830,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1060,6 +1066,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5968,10 +5978,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G17"/>
+  <dimension ref="B1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -6018,22 +6028,22 @@
     </row>
     <row r="4" ht="15.15" spans="2:7">
       <c r="B4" s="12">
-        <v>-2874.1</v>
+        <v>-188.11</v>
       </c>
       <c r="C4" s="13">
-        <v>9204.2</v>
+        <v>396.42</v>
       </c>
       <c r="D4" s="13">
-        <v>-7340.6</v>
+        <v>-139.68</v>
       </c>
       <c r="E4" s="13">
         <v>3.3</v>
       </c>
       <c r="F4" s="13">
-        <v>1.551</v>
+        <v>0.654545</v>
       </c>
       <c r="G4" s="14">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="15.15"/>
@@ -6071,15 +6081,15 @@
     <row r="11" spans="2:7">
       <c r="B11" s="9" t="str">
         <f>RIGHT(REPT(0,10)&amp;DEC2HEX(B4*10),8)</f>
-        <v>FFFF8FBB</v>
+        <v>FFFFF8A7</v>
       </c>
       <c r="C11" s="10" t="str">
         <f>RIGHT(REPT(0,10)&amp;DEC2HEX(C4*10),8)</f>
-        <v>0001678A</v>
+        <v>00000F7C</v>
       </c>
       <c r="D11" s="22" t="str">
         <f>RIGHT(REPT(0,10)&amp;DEC2HEX(D4*10),8)</f>
-        <v>FFFEE142</v>
+        <v>FFFFFA8C</v>
       </c>
       <c r="E11" s="9" t="str">
         <f>RIGHT(REPT(0,10)&amp;DEC2HEX(E4*1000),8)</f>
@@ -6087,11 +6097,11 @@
       </c>
       <c r="F11" s="10" t="str">
         <f>RIGHT(REPT(0,10)&amp;DEC2HEX(F4*1000),8)</f>
-        <v>0000060F</v>
+        <v>0000028E</v>
       </c>
       <c r="G11" s="11" t="str">
         <f>RIGHT(REPT(0,10)&amp;DEC2HEX(G4*10),2)</f>
-        <v>06</v>
+        <v>00</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -6112,7 +6122,7 @@
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="35" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="28"/>
@@ -6121,21 +6131,43 @@
     <row r="14" ht="15.15" spans="2:7">
       <c r="B14" s="30" t="str">
         <f>B13&amp;B11&amp;C11&amp;D11</f>
-        <v>01080102000cFFFF8FBB0001678AFFFEE142</v>
+        <v>01080102000cFFFFF8A700000F7CFFFFFA8C</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="32"/>
       <c r="E14" s="30" t="str">
         <f>E13&amp;E11&amp;F11&amp;G11</f>
-        <v>01090104000900000CE40000060F06</v>
+        <v>01090104000900000CE40000028E00</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="33"/>
     </row>
     <row r="15" ht="15.15"/>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:7">
       <c r="B17" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="5">
+        <v>0.634538</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="5">
+        <v>0.634538</v>
       </c>
     </row>
   </sheetData>
@@ -6185,28 +6217,28 @@
   <sheetData>
     <row r="1" ht="28.8" spans="3:14">
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4" t="s">
@@ -6319,13 +6351,13 @@
         <v>-75.1085264299802</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -6777,7 +6809,7 @@
   <sheetPr/>
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -6790,19 +6822,19 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11">

--- a/soil FDR/docs/fdr.xlsx
+++ b/soil FDR/docs/fdr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="24860" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pt100" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>原始数据</t>
   </si>
@@ -109,9 +109,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -137,13 +137,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -159,23 +237,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,30 +245,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,14 +253,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -242,37 +273,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -283,7 +283,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,7 +331,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,7 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,139 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,21 +507,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -541,21 +526,6 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -597,21 +567,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -625,17 +580,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
       <top style="thick">
         <color auto="1"/>
       </top>
@@ -689,6 +633,75 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thick">
         <color auto="1"/>
@@ -700,15 +713,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,16 +747,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,44 +776,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,153 +801,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -986,29 +986,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1019,112 +1033,98 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4627,8 +4627,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2832100" y="779145"/>
-        <a:ext cx="6598285" cy="3173730"/>
+        <a:off x="2740660" y="901065"/>
+        <a:ext cx="6349365" cy="3691890"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4662,8 +4662,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10404475" y="2268855"/>
-        <a:ext cx="5933440" cy="3984625"/>
+        <a:off x="10031095" y="2639695"/>
+        <a:ext cx="5709285" cy="4655185"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4687,7 +4687,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>607060</xdr:colOff>
+      <xdr:colOff>586740</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>62865</xdr:rowOff>
     </xdr:to>
@@ -4697,8 +4697,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6139815" y="8834120"/>
-        <a:ext cx="6659245" cy="3664585"/>
+        <a:off x="5916930" y="10297160"/>
+        <a:ext cx="6405880" cy="4274185"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4967,7 +4967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:T81"/>
   <sheetViews>
@@ -4975,11 +4975,11 @@
       <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
   <cols>
-    <col min="7" max="7" width="12.9259259259259"/>
-    <col min="8" max="8" width="12.8888888888889"/>
-    <col min="20" max="20" width="14.0740740740741"/>
+    <col min="7" max="7" width="12.9230769230769"/>
+    <col min="8" max="8" width="12.8846153846154"/>
+    <col min="20" max="20" width="14.0769230769231"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -5976,27 +5976,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="B1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:G14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="5"/>
-    <col min="2" max="2" width="30.5925925925926" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.5462962962963" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.6111111111111" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19.537037037037" style="5" customWidth="1"/>
-    <col min="6" max="7" width="15.1574074074074" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="8.88888888888889" style="5"/>
+    <col min="1" max="1" width="8.88461538461539" style="5"/>
+    <col min="2" max="2" width="30.5961538461538" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.5480769230769" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.6153846153846" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.5384615384615" style="5" customWidth="1"/>
+    <col min="6" max="7" width="15.1538461538462" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.88461538461539" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15"/>
-    <row r="2" ht="15.15" spans="2:7">
+    <row r="1" ht="17.55"/>
+    <row r="2" ht="17.55" spans="2:7">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -6004,161 +6004,161 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15.15" spans="2:7">
-      <c r="B4" s="12">
-        <v>-188.11</v>
-      </c>
-      <c r="C4" s="13">
-        <v>396.42</v>
-      </c>
-      <c r="D4" s="13">
-        <v>-139.68</v>
-      </c>
-      <c r="E4" s="13">
+    <row r="4" ht="17.55" spans="2:7">
+      <c r="B4" s="10">
+        <v>82.93</v>
+      </c>
+      <c r="C4" s="11">
+        <v>-27.688</v>
+      </c>
+      <c r="D4" s="11">
+        <v>12.822</v>
+      </c>
+      <c r="E4" s="11">
         <v>3.3</v>
       </c>
-      <c r="F4" s="13">
-        <v>0.654545</v>
-      </c>
-      <c r="G4" s="14">
+      <c r="F4" s="11">
+        <v>0.621658</v>
+      </c>
+      <c r="G4" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="15.15"/>
-    <row r="8" ht="15.15"/>
-    <row r="9" ht="15.9" spans="2:7">
-      <c r="B9" s="15" t="s">
+    <row r="5" ht="17.55"/>
+    <row r="8" ht="17.55"/>
+    <row r="9" ht="18.3" spans="2:7">
+      <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" ht="15.15" spans="2:7">
-      <c r="B10" s="18" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" ht="17.55" spans="2:7">
+      <c r="B10" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="9" t="str">
+      <c r="B11" s="8" t="str">
         <f>RIGHT(REPT(0,10)&amp;DEC2HEX(B4*10),8)</f>
-        <v>FFFFF8A7</v>
-      </c>
-      <c r="C11" s="10" t="str">
+        <v>0000033D</v>
+      </c>
+      <c r="C11" s="9" t="str">
         <f>RIGHT(REPT(0,10)&amp;DEC2HEX(C4*10),8)</f>
-        <v>00000F7C</v>
-      </c>
-      <c r="D11" s="22" t="str">
+        <v>FFFFFEEC</v>
+      </c>
+      <c r="D11" s="17" t="str">
         <f>RIGHT(REPT(0,10)&amp;DEC2HEX(D4*10),8)</f>
-        <v>FFFFFA8C</v>
-      </c>
-      <c r="E11" s="9" t="str">
+        <v>00000080</v>
+      </c>
+      <c r="E11" s="8" t="str">
         <f>RIGHT(REPT(0,10)&amp;DEC2HEX(E4*1000),8)</f>
         <v>00000CE4</v>
       </c>
-      <c r="F11" s="10" t="str">
+      <c r="F11" s="9" t="str">
         <f>RIGHT(REPT(0,10)&amp;DEC2HEX(F4*1000),8)</f>
-        <v>0000028E</v>
-      </c>
-      <c r="G11" s="11" t="str">
+        <v>0000026D</v>
+      </c>
+      <c r="G11" s="28" t="str">
         <f>RIGHT(REPT(0,10)&amp;DEC2HEX(G4*10),2)</f>
         <v>00</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="23" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="26"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" ht="15.15" spans="2:7">
-      <c r="B14" s="30" t="str">
+      <c r="F13" s="22"/>
+      <c r="G13" s="33"/>
+    </row>
+    <row r="14" ht="17.55" spans="2:7">
+      <c r="B14" s="23" t="str">
         <f>B13&amp;B11&amp;C11&amp;D11</f>
-        <v>01080102000cFFFFF8A700000F7CFFFFFA8C</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="30" t="str">
+        <v>01080102000c0000033DFFFFFEEC00000080</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="23" t="str">
         <f>E13&amp;E11&amp;F11&amp;G11</f>
-        <v>01090104000900000CE40000028E00</v>
-      </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="33"/>
-    </row>
-    <row r="15" ht="15.15"/>
+        <v>01090104000900000CE40000026D00</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" ht="17.55"/>
     <row r="17" spans="2:7">
       <c r="B17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="5">
@@ -6188,7 +6188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N54"/>
   <sheetViews>
@@ -6196,26 +6196,26 @@
       <selection activeCell="G4" sqref="G4:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.88888888888889" style="2"/>
-    <col min="3" max="3" width="9.76851851851852" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.8981481481481" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.9259259259259" style="3"/>
-    <col min="6" max="6" width="15.5462962962963" style="3" customWidth="1"/>
-    <col min="7" max="8" width="12.1759259259259" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.9259259259259" style="2"/>
-    <col min="10" max="10" width="10.3055555555556" style="2" customWidth="1"/>
-    <col min="11" max="13" width="12.6111111111111" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.7685185185185" style="2" customWidth="1"/>
-    <col min="15" max="16" width="8.88888888888889" style="2"/>
-    <col min="17" max="17" width="14.1111111111111" style="2"/>
-    <col min="18" max="18" width="12.8888888888889" style="2"/>
-    <col min="19" max="16384" width="8.88888888888889" style="2"/>
+    <col min="2" max="2" width="8.88461538461539" style="2"/>
+    <col min="3" max="3" width="9.76923076923077" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.8942307692308" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.9230769230769" style="3"/>
+    <col min="6" max="6" width="15.5480769230769" style="3" customWidth="1"/>
+    <col min="7" max="8" width="12.1730769230769" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.9230769230769" style="2"/>
+    <col min="10" max="10" width="10.3076923076923" style="2" customWidth="1"/>
+    <col min="11" max="13" width="12.6153846153846" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.7692307692308" style="2" customWidth="1"/>
+    <col min="15" max="16" width="8.88461538461539" style="2"/>
+    <col min="17" max="17" width="14.1153846153846" style="2"/>
+    <col min="18" max="18" width="12.8846153846154" style="2"/>
+    <col min="19" max="16384" width="8.88461538461539" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="3:14">
+    <row r="1" ht="34" spans="3:14">
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
@@ -6805,7 +6805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:K73"/>
   <sheetViews>
@@ -6813,11 +6813,11 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
   <cols>
-    <col min="5" max="5" width="10.6666666666667"/>
-    <col min="8" max="8" width="14.1111111111111"/>
-    <col min="11" max="11" width="10.7777777777778"/>
+    <col min="5" max="5" width="10.6634615384615"/>
+    <col min="8" max="8" width="14.1153846153846"/>
+    <col min="11" max="11" width="10.7788461538462"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
